--- a/data/Curanilahue.xlsx
+++ b/data/Curanilahue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curanilahue.xlsx
+++ b/data/Curanilahue.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/Curanilahue.xlsx
+++ b/data/Curanilahue.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
